--- a/biology/Médecine/1221_en_santé_et_médecine/1221_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1221_en_santé_et_médecine/1221_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1221_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1221_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1221 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1221_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1221_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'hôpital Saint-Jean-Baptiste de la ville d'Aire, dans le comté de Flandre, est placé par l'évêque de Thérouanne sous l'autorité conjointe des échevins et des chanoines de la paroisse Saint-Pierre[1],[2].
-Construction de la léproserie Saint-Ladre, dépendante de l'hôpital de Saint-Pol, en Artois[3].
-Les frères dominicains fondent à Florence, sur le parvis de l'église Santa Maria Novella, une apothicairerie qui est à l'origine de l'actuelle Antica Spezieria di Santa Maria Novella[4].
-Les frères dominicains fondent un hospice à Gand, au lieu-dit Onderbergen, dans une maison donnée par le sieur Sohier Parys, à côté de celle déjà consacrée à l'accueil des malades par Catherine Uutenhove[5],[6].
-Fondation par Hedwige, abbesse d'Andlau, de l'hospice d'Obersteigen, en Alsace, « destiné aux pauvres et aux indigents » et confié aux chanoines augustins de Steigen[7].
-Aubert d'Hangest et son épouse créent un maladrerie à Genlis, dans le Vermandois[8].
-Premier praticien hospitalier dont on ait conservé la trace[9], le chirurgien Hubert s'engage à donner gratuitement ses soins aux infirmes et aux pauvres de l'Hôtel-Dieu de Paris, ainsi qu'aux frères et aux sœurs de l'hôpital[10].
-1218-1221[11] : lié depuis 1214 par ses fonctions d’archiatre, le médecin et chirurgien Hugues de Lucques (it) accompagne les troupes envoyées par Bologne en Terre sainte[12].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hôpital Saint-Jean-Baptiste de la ville d'Aire, dans le comté de Flandre, est placé par l'évêque de Thérouanne sous l'autorité conjointe des échevins et des chanoines de la paroisse Saint-Pierre,.
+Construction de la léproserie Saint-Ladre, dépendante de l'hôpital de Saint-Pol, en Artois.
+Les frères dominicains fondent à Florence, sur le parvis de l'église Santa Maria Novella, une apothicairerie qui est à l'origine de l'actuelle Antica Spezieria di Santa Maria Novella.
+Les frères dominicains fondent un hospice à Gand, au lieu-dit Onderbergen, dans une maison donnée par le sieur Sohier Parys, à côté de celle déjà consacrée à l'accueil des malades par Catherine Uutenhove,.
+Fondation par Hedwige, abbesse d'Andlau, de l'hospice d'Obersteigen, en Alsace, « destiné aux pauvres et aux indigents » et confié aux chanoines augustins de Steigen.
+Aubert d'Hangest et son épouse créent un maladrerie à Genlis, dans le Vermandois.
+Premier praticien hospitalier dont on ait conservé la trace, le chirurgien Hubert s'engage à donner gratuitement ses soins aux infirmes et aux pauvres de l'Hôtel-Dieu de Paris, ainsi qu'aux frères et aux sœurs de l'hôpital.
+1218-1221 : lié depuis 1214 par ses fonctions d’archiatre, le médecin et chirurgien Hugues de Lucques (it) accompagne les troupes envoyées par Bologne en Terre sainte.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1221_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1221_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1221 : Muhammad al-Jighmini (en) (date de naissance inconnue), astronome persan auquel on a parfois attribué le Petit Canon (Qanûnja), traité de médecine inspiré du Canon d'Avicenne[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1221 : Muhammad al-Jighmini (en) (date de naissance inconnue), astronome persan auquel on a parfois attribué le Petit Canon (Qanûnja), traité de médecine inspiré du Canon d'Avicenne.
 </t>
         </is>
       </c>
